--- a/Crédito disponível - Centralização - Campus Itabaiana.xlsx
+++ b/Crédito disponível - Centralização - Campus Itabaiana.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Crédito disponível - Centralização - Campus Itabaiana</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">OBRIGACOES TRIBUTARIAS E CONTRIBUTIVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRIG.TRIBUT.E CONTRIB-OP.INTRA-ORCAMENTARIAS</t>
   </si>
   <si>
     <t xml:space="preserve">1444000000</t>
@@ -393,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -614,10 +620,10 @@
         <v>23000</v>
       </c>
       <c r="N10" s="12">
-        <v>8477.08</v>
+        <v>9167.32</v>
       </c>
       <c r="O10" s="13">
-        <v>8477.08</v>
+        <v>8942.74</v>
       </c>
     </row>
     <row r="11">
@@ -643,10 +649,10 @@
         <v>14600</v>
       </c>
       <c r="N11" s="12">
-        <v>5226.19</v>
+        <v>6493.53</v>
       </c>
       <c r="O11" s="13">
-        <v>5226.19</v>
+        <v>6493.53</v>
       </c>
     </row>
     <row r="12">
@@ -665,17 +671,17 @@
         <v>33</v>
       </c>
       <c r="K12" s="12">
-        <v>3835.98</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>726619.85</v>
+        <v>737185.11</v>
       </c>
       <c r="N12" s="12">
-        <v>362348.92</v>
+        <v>455661</v>
       </c>
       <c r="O12" s="13">
-        <v>349112.53</v>
+        <v>445774.85</v>
       </c>
     </row>
     <row r="13">
@@ -698,7 +704,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>521699.97</v>
+        <v>522774.97</v>
       </c>
       <c r="N13" s="12">
         <v>144669.25</v>
@@ -730,10 +736,10 @@
         <v>43318.23</v>
       </c>
       <c r="N14" s="12">
-        <v>18224.6</v>
+        <v>20048.24</v>
       </c>
       <c r="O14" s="13">
-        <v>18224.6</v>
+        <v>20048.24</v>
       </c>
     </row>
     <row r="15">
@@ -768,68 +774,64 @@
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K16" s="12">
-        <v>172.15</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12">
-        <v>4732.5</v>
-      </c>
-      <c r="N17" s="12">
-        <v>3082.5</v>
-      </c>
-      <c r="O17" s="13">
-        <v>3082.5</v>
-      </c>
+        <v>12085</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -841,18 +843,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18" s="12">
-        <v>187779.14</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="12">
+        <v>4732.5</v>
+      </c>
+      <c r="N18" s="12">
+        <v>3082.5</v>
+      </c>
+      <c r="O18" s="13">
+        <v>3082.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
@@ -864,24 +872,18 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="12">
-        <v>13381.79</v>
+        <v>181222.01</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="12">
-        <v>28415.9</v>
-      </c>
-      <c r="N19" s="12">
-        <v>18898.1</v>
-      </c>
-      <c r="O19" s="13">
-        <v>18898.1</v>
-      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
@@ -893,46 +895,42 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="12">
-        <v>13160</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+        <v>13381.79</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
+        <v>28415.9</v>
+      </c>
+      <c r="N20" s="12">
+        <v>28415.9</v>
+      </c>
+      <c r="O20" s="13">
+        <v>28415.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="11">
-        <v>3</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K21" s="12">
-        <v>330286</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <v>0</v>
@@ -942,23 +940,15 @@
       <c r="O21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="F22" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="G22" s="11">
         <v>3</v>
@@ -973,77 +963,141 @@
         <v>21</v>
       </c>
       <c r="K22" s="12">
-        <v>156035.3</v>
-      </c>
-      <c r="L22" s="12"/>
+        <v>323728.87</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="12">
+        <v>6557.13</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12">
-        <v>233501.7</v>
-      </c>
-      <c r="N23" s="12">
-        <v>78275</v>
-      </c>
-      <c r="O23" s="13">
-        <v>78275</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="C24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="11">
         <v>3</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>37206</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
+        <v>156035.3</v>
+      </c>
+      <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
     </row>
+    <row r="25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12">
+        <v>233501.7</v>
+      </c>
+      <c r="N25" s="12">
+        <v>78275</v>
+      </c>
+      <c r="O25" s="13">
+        <v>78275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="15">
+        <v>3</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12">
+        <v>37206</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1051,28 +1105,32 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Itabaiana.xlsx
+++ b/Crédito disponível - Centralização - Campus Itabaiana.xlsx
@@ -620,10 +620,10 @@
         <v>23000</v>
       </c>
       <c r="N10" s="12">
-        <v>9167.32</v>
+        <v>9684.19</v>
       </c>
       <c r="O10" s="13">
-        <v>8942.74</v>
+        <v>9404.28</v>
       </c>
     </row>
     <row r="11">
@@ -678,7 +678,7 @@
         <v>737185.11</v>
       </c>
       <c r="N12" s="12">
-        <v>455661</v>
+        <v>493468.88</v>
       </c>
       <c r="O12" s="13">
         <v>445774.85</v>
@@ -704,13 +704,13 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>522774.97</v>
+        <v>524661.53</v>
       </c>
       <c r="N13" s="12">
-        <v>144669.25</v>
+        <v>168003.02</v>
       </c>
       <c r="O13" s="13">
-        <v>144669.25</v>
+        <v>148022.19</v>
       </c>
     </row>
     <row r="14">
@@ -765,7 +765,7 @@
         <v>1278.72</v>
       </c>
       <c r="N15" s="12">
-        <v>536.68</v>
+        <v>645.18</v>
       </c>
       <c r="O15" s="13">
         <v>536.68</v>
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>12085</v>
+        <v>10198.44</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>4732.5</v>
       </c>
       <c r="N18" s="12">
-        <v>3082.5</v>
+        <v>4732.5</v>
       </c>
       <c r="O18" s="13">
-        <v>3082.5</v>
+        <v>4732.5</v>
       </c>
     </row>
     <row r="19">
@@ -1057,10 +1057,10 @@
         <v>233501.7</v>
       </c>
       <c r="N25" s="12">
-        <v>78275</v>
+        <v>105087.66</v>
       </c>
       <c r="O25" s="13">
-        <v>78275</v>
+        <v>105087.66</v>
       </c>
     </row>
     <row r="26">

--- a/Crédito disponível - Centralização - Campus Itabaiana.xlsx
+++ b/Crédito disponível - Centralização - Campus Itabaiana.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Crédito disponível - Centralização - Campus Itabaiana</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">APLICACOES DIRETAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRAS E INSTALACOES</t>
   </si>
   <si>
     <t xml:space="preserve">20RL</t>
@@ -399,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -551,7 +557,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="12">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -559,38 +565,22 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="K9" s="12">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -598,33 +588,43 @@
       <c r="O9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K10" s="12">
         <v>0</v>
       </c>
       <c r="L10" s="12"/>
-      <c r="M10" s="12">
-        <v>23000</v>
-      </c>
-      <c r="N10" s="12">
-        <v>9684.19</v>
-      </c>
-      <c r="O10" s="13">
-        <v>9404.28</v>
-      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
@@ -646,13 +646,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>14600</v>
+        <v>23000</v>
       </c>
       <c r="N11" s="12">
-        <v>6493.53</v>
+        <v>14290.96</v>
       </c>
       <c r="O11" s="13">
-        <v>6493.53</v>
+        <v>14290.96</v>
       </c>
     </row>
     <row r="12">
@@ -675,13 +675,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>737185.11</v>
+        <v>14600</v>
       </c>
       <c r="N12" s="12">
-        <v>493468.88</v>
+        <v>10688.6</v>
       </c>
       <c r="O12" s="13">
-        <v>445774.85</v>
+        <v>10688.6</v>
       </c>
     </row>
     <row r="13">
@@ -704,13 +704,13 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>524661.53</v>
+        <v>745473.55</v>
       </c>
       <c r="N13" s="12">
-        <v>168003.02</v>
+        <v>606831.34</v>
       </c>
       <c r="O13" s="13">
-        <v>148022.19</v>
+        <v>598758.48</v>
       </c>
     </row>
     <row r="14">
@@ -733,13 +733,13 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12">
-        <v>43318.23</v>
+        <v>524661.53</v>
       </c>
       <c r="N14" s="12">
-        <v>20048.24</v>
+        <v>221525.6</v>
       </c>
       <c r="O14" s="13">
-        <v>20048.24</v>
+        <v>212808.74</v>
       </c>
     </row>
     <row r="15">
@@ -762,13 +762,13 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12">
-        <v>1278.72</v>
+        <v>43318.23</v>
       </c>
       <c r="N15" s="12">
-        <v>645.18</v>
+        <v>26968.24</v>
       </c>
       <c r="O15" s="13">
-        <v>536.68</v>
+        <v>25658.24</v>
       </c>
     </row>
     <row r="16">
@@ -791,45 +791,37 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
+        <v>1278.72</v>
+      </c>
+      <c r="N16" s="12">
+        <v>753.68</v>
+      </c>
+      <c r="O16" s="13">
+        <v>753.68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11">
-        <v>3</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K17" s="12">
-        <v>10198.44</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
     </row>
@@ -838,29 +830,31 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="12"/>
-      <c r="M18" s="12">
-        <v>4732.5</v>
-      </c>
-      <c r="N18" s="12">
-        <v>4732.5</v>
-      </c>
-      <c r="O18" s="13">
-        <v>4732.5</v>
-      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
@@ -878,10 +872,12 @@
         <v>33</v>
       </c>
       <c r="K19" s="12">
-        <v>181222.01</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="12">
+        <v>12000</v>
+      </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
     </row>
@@ -901,40 +897,50 @@
         <v>35</v>
       </c>
       <c r="K20" s="12">
-        <v>13381.79</v>
+        <v>0</v>
       </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12">
-        <v>28415.9</v>
+        <v>201439.88</v>
       </c>
       <c r="N20" s="12">
-        <v>28415.9</v>
+        <v>6460.11</v>
       </c>
       <c r="O20" s="13">
-        <v>28415.9</v>
+        <v>6460.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11">
+        <v>4</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I21" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
+        <v>4500</v>
+      </c>
+      <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
@@ -944,30 +950,20 @@
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="12">
-        <v>323728.87</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
+        <v>53580.61</v>
+      </c>
+      <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
@@ -979,125 +975,322 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K23" s="12">
-        <v>6557.13</v>
-      </c>
-      <c r="L23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="11">
-        <v>3</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K24" s="12">
-        <v>156035.3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
+      <c r="M24" s="12">
+        <v>4732.5</v>
+      </c>
+      <c r="N24" s="12">
+        <v>4732.5</v>
+      </c>
+      <c r="O24" s="13">
+        <v>4732.5</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K25" s="12">
         <v>0</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12">
-        <v>233501.7</v>
-      </c>
-      <c r="N25" s="12">
-        <v>105087.66</v>
-      </c>
-      <c r="O25" s="13">
-        <v>105087.66</v>
-      </c>
+        <v>181222.01</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="12">
+        <v>13381.79</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>30325.9</v>
+      </c>
+      <c r="N26" s="12">
+        <v>30325.9</v>
+      </c>
+      <c r="O26" s="13">
+        <v>30325.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="11">
         <v>3</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="H28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K28" s="12">
+        <v>86633.21</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12">
+        <v>6557.13</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
+        <v>2991.3</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="12">
+        <v>122035.3</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12">
+        <v>267501.7</v>
+      </c>
+      <c r="N32" s="12">
+        <v>151247.66</v>
+      </c>
+      <c r="O32" s="13">
+        <v>151247.66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="15">
+        <v>3</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="12">
         <v>37206</v>
       </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="47">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1105,32 +1298,46 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="G9:G16"/>
-    <mergeCell ref="H9:H16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A30"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="H10:H17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Itabaiana.xlsx
+++ b/Crédito disponível - Centralização - Campus Itabaiana.xlsx
@@ -649,10 +649,10 @@
         <v>23000</v>
       </c>
       <c r="N11" s="12">
-        <v>14290.96</v>
+        <v>14758.31</v>
       </c>
       <c r="O11" s="13">
-        <v>14290.96</v>
+        <v>14758.31</v>
       </c>
     </row>
     <row r="12">
@@ -707,7 +707,7 @@
         <v>745473.55</v>
       </c>
       <c r="N13" s="12">
-        <v>606831.34</v>
+        <v>608625.34</v>
       </c>
       <c r="O13" s="13">
         <v>598758.48</v>
@@ -739,7 +739,7 @@
         <v>221525.6</v>
       </c>
       <c r="O14" s="13">
-        <v>212808.74</v>
+        <v>221318.08</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
         <v>26968.24</v>
       </c>
       <c r="O15" s="13">
-        <v>25658.24</v>
+        <v>26968.24</v>
       </c>
     </row>
     <row r="16">
@@ -904,7 +904,7 @@
         <v>201439.88</v>
       </c>
       <c r="N20" s="12">
-        <v>6460.11</v>
+        <v>39147.83</v>
       </c>
       <c r="O20" s="13">
         <v>6460.11</v>
@@ -1129,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="12">
-        <v>86633.21</v>
+        <v>76128.56</v>
       </c>
       <c r="L28" s="12">
         <v>0</v>
@@ -1185,7 +1185,9 @@
       <c r="M30" s="12">
         <v>2991.3</v>
       </c>
-      <c r="N30" s="12"/>
+      <c r="N30" s="12">
+        <v>2991.3</v>
+      </c>
       <c r="O30" s="13"/>
     </row>
     <row r="31">

--- a/Crédito disponível - Centralização - Campus Itabaiana.xlsx
+++ b/Crédito disponível - Centralização - Campus Itabaiana.xlsx
@@ -649,10 +649,10 @@
         <v>23000</v>
       </c>
       <c r="N11" s="12">
-        <v>14758.31</v>
+        <v>15814.29</v>
       </c>
       <c r="O11" s="13">
-        <v>14758.31</v>
+        <v>15814.29</v>
       </c>
     </row>
     <row r="12">
@@ -710,7 +710,7 @@
         <v>608625.34</v>
       </c>
       <c r="O13" s="13">
-        <v>598758.48</v>
+        <v>600355.14</v>
       </c>
     </row>
     <row r="14">
@@ -907,7 +907,7 @@
         <v>39147.83</v>
       </c>
       <c r="O20" s="13">
-        <v>6460.11</v>
+        <v>35379.8</v>
       </c>
     </row>
     <row r="21">
